--- a/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,87</t>
+          <t>0,54; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 22,58</t>
+          <t>11,0; 22,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,53</t>
+          <t>6,07; 11,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,55</t>
+          <t>3,21; 8,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,32</t>
+          <t>11,36; 18,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,59</t>
+          <t>8,15; 12,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,91</t>
+          <t>6,49; 11,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 20,09</t>
+          <t>14,0; 19,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 15,19</t>
+          <t>11,34; 15,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 17,34</t>
+          <t>10,89; 17,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 28,45</t>
+          <t>22,26; 28,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,07</t>
+          <t>17,07; 22,07</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,69; 24,32</t>
+          <t>17,98; 24,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,28; 36,38</t>
+          <t>30,33; 36,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,68</t>
+          <t>24,68; 29,06</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,56</t>
+          <t>23,21; 28,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,14; 46,84</t>
+          <t>28,23; 46,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 38,03</t>
+          <t>26,99; 38,07</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,24; 15,88</t>
+          <t>13,15; 15,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,74; 28,72</t>
+          <t>24,31; 28,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,82; 22,11</t>
+          <t>19,81; 22,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,31</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 22,07</t>
+          <t>10,78; 22,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,9</t>
+          <t>6,15; 12,53</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,69</t>
+          <t>3,01; 8,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 18,34</t>
+          <t>11,08; 18,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,93</t>
+          <t>8,04; 12,59</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,85</t>
+          <t>6,6; 11,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 19,8</t>
+          <t>14,03; 20,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,06</t>
+          <t>11,39; 15,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 17,5</t>
+          <t>10,83; 17,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 28,38</t>
+          <t>22,57; 28,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 22,07</t>
+          <t>17,3; 22,07</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,24</t>
+          <t>17,69; 24,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,33; 36,2</t>
+          <t>30,28; 36,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,68; 29,06</t>
+          <t>24,83; 29,68</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,85</t>
+          <t>23,21; 28,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,23; 46,98</t>
+          <t>30,14; 46,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,99; 38,07</t>
+          <t>27,86; 38,03</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,15; 15,72</t>
+          <t>13,24; 15,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,31; 28,75</t>
+          <t>24,74; 28,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,81; 22,15</t>
+          <t>19,82; 22,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,87</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 22,58</t>
+          <t>10,94; 22,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,53</t>
+          <t>5,77; 11,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,55%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,55</t>
+          <t>3,16; 8,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,32</t>
+          <t>8,31; 17,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,59</t>
+          <t>7,05; 11,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,91</t>
+          <t>6,58; 11,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 20,09</t>
+          <t>12,04; 19,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 15,19</t>
+          <t>10,99; 15,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 17,34</t>
+          <t>4,44; 16,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 28,45</t>
+          <t>20,54; 27,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,07</t>
+          <t>10,6; 20,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,99%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,69; 24,32</t>
+          <t>17,79; 24,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,28; 36,38</t>
+          <t>30,24; 36,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,68</t>
+          <t>24,85; 29,71</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 28,56</t>
+          <t>17,47; 24,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,14; 46,84</t>
+          <t>8,4; 36,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 38,03</t>
+          <t>9,97; 29,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>55,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>46,52%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,24; 15,88</t>
+          <t>28,36; 37,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,74; 28,72</t>
+          <t>51,92; 58,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,82; 22,11</t>
+          <t>43,73; 49,01</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 14,95</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21,49; 27,86</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16,93; 21,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,49; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 22,91</t>
+          <t>11,42; 23,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,78</t>
+          <t>5,38; 11,17</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,75</t>
+          <t>3,32; 8,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 17,02</t>
+          <t>7,51; 16,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,91</t>
+          <t>6,67; 12,01</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,94</t>
+          <t>6,92; 12,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 19,47</t>
+          <t>12,41; 19,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,09</t>
+          <t>10,8; 14,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 16,07</t>
+          <t>4,75; 16,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 27,49</t>
+          <t>20,42; 27,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,75</t>
+          <t>9,93; 20,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,47</t>
+          <t>17,65; 23,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,24; 36,4</t>
+          <t>30,2; 36,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 29,71</t>
+          <t>24,86; 29,19</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 24,12</t>
+          <t>17,4; 23,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,4; 36,34</t>
+          <t>9,35; 36,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 29,24</t>
+          <t>12,44; 29,33</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,36; 37,47</t>
+          <t>29,03; 37,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,92; 58,67</t>
+          <t>52,06; 59,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,73; 49,01</t>
+          <t>43,71; 49,47</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,95</t>
+          <t>10,42; 14,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,49; 27,86</t>
+          <t>20,8; 27,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,2</t>
+          <t>17,11; 21,21</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7206</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50324</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57531</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1979; 20263</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35761; 72660</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38377; 79656</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22820</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66502</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>89322</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14076; 37374</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>38461; 86898</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>62387; 112332</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48943</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>97317</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>146260</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37112; 65839</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>73464; 114668</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>121810; 168637</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>97825</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>173392</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>271217</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42181; 143466</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>145546; 194413</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>158898; 329935</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117108</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>182259</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>299367</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99080; 133825</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>165480; 197481</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>275784; 323771</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>75576</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>143235</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>218811</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>64052; 87195</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>56879; 222283</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>121455; 286451</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>93101</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>236516</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>329617</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>82073; 105023</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>221690; 251253</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>309738; 350511</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>462580</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>949546</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1412125</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>360611; 516813</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>772295; 1028292</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1227473; 1521176</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>